--- a/目前上线.xlsx
+++ b/目前上线.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>优先级</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -24,18 +24,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>后端预估完成时间（负责人）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端预估完成时间（负责人）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端完成标志</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>前端完成标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -80,11 +68,107 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>2018.4.27 12:00(华红宾)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.27 18:00(肖璐玉)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.28 16:00(华红宾)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉钉审核对接（纯后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.28 18:00(戴齐)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 后端完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.26 18:00(黄龙)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不上线的放在下方</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货回调的结算单(纯后端)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金流水认领（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员提成统计（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>续租（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关功能（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品打包（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重算结算单（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货列表发货分公司商务可看（纯后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>2018.4.27 12:00(孙志鹏)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2018.4.27 12:00(华红宾)</t>
+    <t>2018.4.28 16:00(孙志鹏)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端预计交付时间（负责人）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端预计完成时间（负责人）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端交付标志</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.28 15:00(肖璐玉)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合商品添加新旧属性（前后端）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -92,67 +176,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2018.4.27 18:00(肖璐玉)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.28 16:00(华红宾)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钉钉审核对接（纯后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.28 18:00(戴齐)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 后端完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.26 18:00(黄龙)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端开发中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不上线的放在下方</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货回调的结算单(纯后端)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金流水认领（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务员提成统计（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>续租（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券相关功能（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品打包（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重算结算单（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端完成</t>
+    <t>2018.4.28 16:00(肖璐玉)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>K3退货结果信息修改（纯后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.28 18:00(孙志鹏)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -235,21 +271,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -262,7 +289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,17 +301,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -616,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -633,36 +656,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -672,13 +695,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
@@ -691,13 +714,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -708,13 +731,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -725,13 +748,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
@@ -742,13 +765,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
@@ -759,13 +782,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -776,13 +799,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -793,13 +816,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
@@ -810,15 +833,15 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
@@ -827,45 +850,80 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
+    <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
@@ -911,11 +969,17 @@
     </row>
     <row r="31" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A16:H16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/目前上线.xlsx
+++ b/目前上线.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>优先级</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -189,6 +189,23 @@
   </si>
   <si>
     <t>2018.4.28 18:00(孙志鹏)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印增加事件，记录打印次数</t>
+  </si>
+  <si>
+    <t>回收站优化</t>
+  </si>
+  <si>
+    <t>工作流只要自己的</t>
+  </si>
+  <si>
+    <t>退货单的打印（纯前端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印交货单是否全新</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -639,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -913,73 +930,134 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
     </row>
     <row r="33" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
+    </row>
+    <row r="34" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A22:H22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/目前上线.xlsx
+++ b/目前上线.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>优先级</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -64,148 +64,142 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2018.4.28 12:00(赵子煊)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2018.4.27 12:00(华红宾)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>钉钉审核对接（纯后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.28 18:00(戴齐)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 后端完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.26 18:00(黄龙)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>后端开发中</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>不上线的放在下方</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货回调的结算单(纯后端)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金流水认领（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员提成统计（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>续租（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关功能（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品打包（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货列表发货分公司商务可看（纯后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.27 12:00(孙志鹏)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.28 16:00(孙志鹏)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端预计交付时间（负责人）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端预计完成时间（负责人）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端交付标志</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.28 15:00(肖璐玉)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合商品添加新旧属性（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.28 16:00(肖璐玉)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>K3退货结果信息修改（纯后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.28 18:00(孙志鹏)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印增加事件，记录打印次数</t>
+  </si>
+  <si>
+    <t>退货单的打印（纯前端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印交货单是否全新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.4 10:00(华红宾)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.3 12:00(赵子煊)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>2018.4.27 18:00(肖璐玉)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2018.4.28 16:00(华红宾)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钉钉审核对接（纯后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.28 18:00(戴齐)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 后端完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.26 18:00(黄龙)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端开发中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不上线的放在下方</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货回调的结算单(纯后端)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金流水认领（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务员提成统计（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>续租（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券相关功能（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品打包（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重算结算单（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货列表发货分公司商务可看（纯后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.27 12:00(孙志鹏)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.28 16:00(孙志鹏)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端预计交付时间（负责人）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端预计完成时间（负责人）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端交付标志</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.28 15:00(肖璐玉)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>组合商品添加新旧属性（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端开发中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.28 16:00(肖璐玉)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>K3退货结果信息修改（纯后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.28 18:00(孙志鹏)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印增加事件，记录打印次数</t>
+    <t>重算结算单（纯后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>回收站优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>工作流只要自己的</t>
-  </si>
-  <si>
-    <t>退货单的打印（纯前端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印交货单是否全新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.5 12:00(肖璐玉)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -659,7 +653,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -690,13 +684,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>2</v>
@@ -712,13 +706,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
@@ -731,15 +725,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
@@ -748,15 +742,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
@@ -765,13 +759,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
@@ -782,13 +776,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
@@ -802,12 +796,12 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
@@ -833,16 +827,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -850,13 +844,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="3"/>
@@ -867,16 +861,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -884,16 +878,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -901,15 +895,15 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
@@ -918,15 +912,15 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
@@ -935,7 +929,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -946,7 +940,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -957,7 +957,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -968,7 +968,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -979,7 +979,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -993,7 +993,7 @@
     </row>
     <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>

--- a/目前上线.xlsx
+++ b/目前上线.xlsx
@@ -653,7 +653,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -806,7 +806,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -820,7 +820,7 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">

--- a/目前上线.xlsx
+++ b/目前上线.xlsx
@@ -96,110 +96,110 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>续租（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券相关功能（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品打包（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货列表发货分公司商务可看（纯后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.27 12:00(孙志鹏)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.28 16:00(孙志鹏)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端预计交付时间（负责人）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端预计完成时间（负责人）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端交付标志</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.28 15:00(肖璐玉)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合商品添加新旧属性（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.28 16:00(肖璐玉)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>K3退货结果信息修改（纯后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.28 18:00(孙志鹏)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印增加事件，记录打印次数</t>
+  </si>
+  <si>
+    <t>退货单的打印（纯前端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印交货单是否全新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.4 10:00(华红宾)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.3 12:00(赵子煊)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.27 18:00(肖璐玉)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重算结算单（纯后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收站优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流只要自己的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.5 12:00(肖璐玉)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员提成统计（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>资金流水认领（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务员提成统计（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>续租（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券相关功能（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品打包（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货列表发货分公司商务可看（纯后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.27 12:00(孙志鹏)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.28 16:00(孙志鹏)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端预计交付时间（负责人）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端预计完成时间（负责人）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端交付标志</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.28 15:00(肖璐玉)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>组合商品添加新旧属性（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.28 16:00(肖璐玉)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>K3退货结果信息修改（纯后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.28 18:00(孙志鹏)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印增加事件，记录打印次数</t>
-  </si>
-  <si>
-    <t>退货单的打印（纯前端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印交货单是否全新</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.5.4 10:00(华红宾)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.5.3 12:00(赵子煊)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.27 18:00(肖璐玉)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重算结算单（纯后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收站优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作流只要自己的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.5.5 12:00(肖璐玉)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -653,7 +653,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -684,13 +684,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>2</v>
@@ -706,14 +706,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -725,14 +726,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -742,14 +744,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -759,13 +762,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
@@ -776,7 +779,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -784,6 +787,7 @@
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -799,8 +803,9 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E8"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -827,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -864,7 +869,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>16</v>
@@ -878,13 +883,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -895,13 +900,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
@@ -912,14 +917,15 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -929,8 +935,9 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -940,13 +947,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -957,8 +964,9 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -968,7 +976,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -979,7 +987,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>

--- a/目前上线.xlsx
+++ b/目前上线.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>优先级</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -175,31 +175,39 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>重算结算单（纯后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收站优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流只要自己的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.5 12:00(肖璐玉)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员提成统计（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金流水认领（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>2018.4.27 18:00(肖璐玉)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>重算结算单（纯后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收站优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作流只要自己的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.5.5 12:00(肖璐玉)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务员提成统计（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金流水认领（前后端）</t>
+    <t>2018.5.5 18:00(张胜)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.5 18:00(张胜)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -653,7 +661,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -706,17 +714,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -726,7 +736,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -734,9 +744,11 @@
       <c r="D4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -752,9 +764,11 @@
       <c r="D5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -787,9 +801,11 @@
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -805,9 +821,11 @@
       <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -832,7 +850,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -925,9 +943,11 @@
       <c r="D15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -937,9 +957,11 @@
       <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -953,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -964,11 +986,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -976,7 +1000,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>

--- a/目前上线.xlsx
+++ b/目前上线.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>优先级</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -36,51 +36,147 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>5.3日上线汇总</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.28 12:00(肖璐玉)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>前后端对接中</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>用户分页接口用户名查询无效（纯后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>结算单导出（前后端）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>2018.4.27 12:00(华红宾)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉钉审核对接（纯后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.28 18:00(戴齐)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 后端完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.26 18:00(黄龙)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>后端开发中</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2018.4.27 12:00(华红宾)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钉钉审核对接（纯后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.28 18:00(戴齐)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 后端完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.26 18:00(黄龙)</t>
+    <t>不上线的放在下方</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>续租（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品打包（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端预计交付时间（负责人）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端预计完成时间（负责人）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端交付标志</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.28 15:00(肖璐玉)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>K3退货结果信息修改（纯后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.28 18:00(孙志鹏)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.3 12:00(赵子煊)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重算结算单（纯后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.5 12:00(肖璐玉)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.5 18:00(张胜)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10日上线汇总</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.5 12:00(刘可)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.5 12:00(黄龙)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印增加事件，记录打印次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.9 16:00(华红宾)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货单订单的选取优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.9 12:00(孙志鹏)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单新增起租时间查询（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.8 18:00(孙志鹏)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货单提示语优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券使用及相关（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算日结算</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -88,126 +184,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>不上线的放在下方</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货回调的结算单(纯后端)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>续租（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券相关功能（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品打包（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货列表发货分公司商务可看（纯后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.27 12:00(孙志鹏)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.28 16:00(孙志鹏)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端预计交付时间（负责人）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端预计完成时间（负责人）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端交付标志</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.28 15:00(肖璐玉)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>组合商品添加新旧属性（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.28 16:00(肖璐玉)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>K3退货结果信息修改（纯后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.28 18:00(孙志鹏)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印增加事件，记录打印次数</t>
-  </si>
-  <si>
-    <t>退货单的打印（纯前端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印交货单是否全新</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.5.4 10:00(华红宾)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.5.3 12:00(赵子煊)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重算结算单（纯后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收站优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作流只要自己的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.5.5 12:00(肖璐玉)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务员提成统计（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金流水认领（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.27 18:00(肖璐玉)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.5.5 18:00(张胜)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.5.5 18:00(张胜)</t>
+    <t>支付订单强制取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.9 17:00(刘可)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.9 14:00(刘可)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端对接中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单拆单（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成退货结算单（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单结算单重算（前后端）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -658,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -676,7 +681,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -692,13 +697,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>2</v>
@@ -714,38 +719,36 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -756,16 +759,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -779,13 +779,13 @@
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -793,19 +793,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -813,53 +810,50 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -867,15 +861,15 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
@@ -884,16 +878,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -901,16 +895,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -918,13 +912,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
@@ -935,19 +929,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -955,13 +946,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -969,71 +963,55 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+    <row r="18" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="20" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="5"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+    <row r="21" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
@@ -1067,29 +1045,11 @@
     </row>
     <row r="33" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
-    </row>
-    <row r="34" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4"/>
-    </row>
-    <row r="35" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="36" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4"/>
-    </row>
-    <row r="37" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="4"/>
-    </row>
-    <row r="39" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A18:H18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/目前上线.xlsx
+++ b/目前上线.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>优先级</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -56,14 +56,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 后端完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.26 18:00(黄龙)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>后端开发中</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -100,10 +92,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>K3退货结果信息修改（纯后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2018.4.28 18:00(孙志鹏)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -112,10 +100,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>重算结算单（纯后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2018.5.5 12:00(肖璐玉)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -128,18 +112,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2018.5.5 12:00(刘可)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>后端完成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2018.5.5 12:00(黄龙)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>打印增加事件，记录打印次数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -176,10 +152,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>结算日结算</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>后端开发中</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -192,27 +164,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2018.5.9 14:00(刘可)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>对接完成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>前后端对接中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>订单拆单（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成退货结算单（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单结算单重算（前后端）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -663,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -681,7 +637,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -697,13 +653,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>2</v>
@@ -719,19 +675,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -745,10 +698,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -759,16 +712,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -776,16 +729,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -793,13 +746,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
@@ -810,47 +763,42 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+    <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
@@ -858,50 +806,53 @@
     </row>
     <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
@@ -909,147 +860,43 @@
     </row>
     <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="20" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
+    <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A9:H9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/目前上线.xlsx
+++ b/目前上线.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>优先级</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -76,143 +76,147 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>后端完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端预计交付时间（负责人）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端预计完成时间（负责人）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端交付标志</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.28 15:00(肖璐玉)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>K3退货结果信息修改（纯后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.28 18:00(孙志鹏)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.3 12:00(赵子煊)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.5 12:00(肖璐玉)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.5 18:00(张胜)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10日上线汇总</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.5 12:00(黄龙)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印增加事件，记录打印次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.9 16:00(华红宾)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货单订单的选取优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.9 12:00(孙志鹏)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单新增起租时间查询（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.8 18:00(孙志鹏)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货单提示语优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券使用及相关（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算日结算</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付订单强制取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.9 17:00(刘可)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.9 14:00(刘可)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端对接中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单拆单（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成退货结算单（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单结算单重算（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>商品打包（前后端）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>后端完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端预计交付时间（负责人）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端预计完成时间（负责人）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端交付标志</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.28 15:00(肖璐玉)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>K3退货结果信息修改（纯后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.4.28 18:00(孙志鹏)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.5.3 12:00(赵子煊)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>重算结算单（纯后端）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2018.5.5 12:00(肖璐玉)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.5.5 18:00(张胜)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.10日上线汇总</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2018.5.5 12:00(刘可)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>后端完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.5.5 12:00(黄龙)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印增加事件，记录打印次数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.5.9 16:00(华红宾)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货单订单的选取优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.5.9 12:00(孙志鹏)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单新增起租时间查询（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.5.8 18:00(孙志鹏)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货单提示语优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券使用及相关（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算日结算</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端开发中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付订单强制取消</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.5.9 17:00(刘可)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.5.9 14:00(刘可)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对接完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>前后端对接中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单拆单（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成退货结算单（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单结算单重算（前后端）</t>
+    <t>2018.5.9 18:00(张胜)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -666,7 +670,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -681,7 +685,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -697,13 +701,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>2</v>
@@ -719,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -728,7 +732,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -745,10 +749,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -759,7 +763,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -776,13 +780,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -793,13 +797,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
@@ -810,13 +814,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -827,13 +831,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
@@ -844,13 +851,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
@@ -861,13 +868,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
@@ -878,13 +885,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
@@ -895,13 +902,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
@@ -912,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
@@ -929,13 +936,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
@@ -946,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
@@ -966,13 +973,13 @@
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>

--- a/目前上线.xlsx
+++ b/目前上线.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>优先级</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -128,47 +128,55 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>2018.5.9 12:00(孙志鹏)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单新增起租时间查询（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.8 18:00(孙志鹏)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货单提示语优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券使用及相关（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付订单强制取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.9 17:00(刘可)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单拆单（前后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>退货单订单的选取优化</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2018.5.9 12:00(孙志鹏)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单新增起租时间查询（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.5.8 18:00(孙志鹏)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货单提示语优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠券使用及相关（前后端）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端开发中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付订单强制取消</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.5.9 17:00(刘可)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对接完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单拆单（前后端）</t>
+    <t>2018.5.5 18:00(张胜)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5.9 18:00(张胜)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +630,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -675,13 +683,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
@@ -701,7 +709,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -729,16 +737,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -746,13 +757,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
@@ -763,13 +774,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
@@ -792,7 +803,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>24</v>
@@ -846,7 +857,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -866,7 +877,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>20</v>
